--- a/Financial Services/MSCI.xlsx
+++ b/Financial Services/MSCI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F8341D-3622-E24A-B6AC-F7BFF5D594D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBD3E62-5CF4-A647-A329-4841185AC74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2360,38 +2360,38 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>572.5</v>
-    <v>376.41</v>
-    <v>1.1511</v>
-    <v>-4.72</v>
-    <v>-8.7670000000000005E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>379.63</v>
+    <v>1.1447000000000001</v>
+    <v>9.32</v>
+    <v>2.0385E-2</v>
+    <v>-0.86</v>
+    <v>-1.843E-3</v>
     <v>USD</v>
     <v>MSCI Inc. (MSCI) is a provider of critical decision support tools and solutions for the global investment community. The Company operates through four segments: Index, Analytics, ESG and Climate, and All Other-Private Assets. Its Index segment offers products, such as MSCI Global Equity Indexes, ESG and Climate Indexes, Factor Indexes, Thematic Indexes, Custom Indexes, Fixed Income Indexes and Real Estate Indexes. Its Analytics segment offers risk management, performance attribution and portfolio management content, applications and services. Its ESG and Climate segment offerings include MSCI ESG Ratings, MSCI ESG Business Involvement Screening Research, and MSCI Climate Solutions. Its All Other-Private Assets segment comprises the Real Estate and Burgiss segments. The Real Estate segment offerings include offerings include transaction data, benchmarks, return-analytics, climate assessments and market insights for tangible assets, such as real estate and infrastructure.</v>
-    <v>4759</v>
+    <v>4846</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>250 Greenwich Street, 49Th Floor, 7 World Trade Center, NEW YORK, NY, 10007 US</v>
-    <v>537.39</v>
+    <v>7 World Trade Center, 250 Greenwich Street, 49th Floor, NEW YORK, NY, 10007 US</v>
+    <v>469.38</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45022.958333356248</v>
+    <v>45071.96479173594</v>
     <v>0</v>
-    <v>532.36</v>
-    <v>42725630000</v>
+    <v>460</v>
+    <v>37350376734</v>
     <v>MSCI INC.</v>
     <v>MSCI INC.</v>
-    <v>534.21</v>
-    <v>50.2318</v>
-    <v>538.37</v>
-    <v>533.65</v>
-    <v>533.65</v>
-    <v>80063020</v>
+    <v>460.78</v>
+    <v>42.767800000000001</v>
+    <v>457.19</v>
+    <v>466.51</v>
+    <v>465.65</v>
+    <v>80063400</v>
     <v>MSCI</v>
     <v>MSCI INC. (XNYS:MSCI)</v>
-    <v>333499</v>
-    <v>447745</v>
+    <v>491920</v>
+    <v>591810</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2979,10 +2979,10 @@
   <dimension ref="A1:AD118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC88" sqref="AC88"/>
+      <selection pane="bottomRight" activeCell="W88" sqref="W88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4283,15 +4283,15 @@
       </c>
       <c r="AB16" s="30">
         <f>AC101/U3</f>
-        <v>19.001008628487618</v>
+        <v>16.610517635433279</v>
       </c>
       <c r="AC16" s="30">
         <f>AC101/U28</f>
-        <v>49.077596020092514</v>
+        <v>42.903210568211968</v>
       </c>
       <c r="AD16" s="31">
         <f>AC101/U106</f>
-        <v>39.496696100400094</v>
+        <v>34.527670606571562</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="AC95" s="55" cm="1">
         <f t="array" ref="AC95">_FV(A1,"Beta")</f>
-        <v>1.1511</v>
+        <v>1.1447000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="AC97" s="35">
         <f>(AC94)+((AC95)*(AC96-AC94))</f>
-        <v>9.0504855000000009E-2</v>
+        <v>9.0229335000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="AC100" s="33">
         <f>AC99/AC103</f>
-        <v>9.8028377160485736E-2</v>
+        <v>0.11057608963600474</v>
       </c>
     </row>
     <row r="101" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="AC101" s="48" cm="1">
         <f t="array" ref="AC101">_FV(A1,"Market cap",TRUE)</f>
-        <v>42725630000</v>
+        <v>37350376734</v>
       </c>
     </row>
     <row r="102" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="AC102" s="33">
         <f>AC101/AC103</f>
-        <v>0.90197162283951426</v>
+        <v>0.88942391036399526</v>
       </c>
     </row>
     <row r="103" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="AC103" s="37">
         <f>AC99+AC101</f>
-        <v>47369151000</v>
+        <v>41993897734</v>
       </c>
     </row>
     <row r="104" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="AC105" s="26">
         <f>(AC100*AC92)+(AC102*AC97)</f>
-        <v>8.4653591127789515E-2</v>
+        <v>8.3659570489327026E-2</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10467,7 +10467,7 @@
       <c r="Y107" s="38"/>
       <c r="Z107" s="41">
         <f>Z106*(1+AC107)/(AC108-AC107)</f>
-        <v>29641331935.31031</v>
+        <v>30143621594.941841</v>
       </c>
       <c r="AA107" s="42" t="s">
         <v>147</v>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="Z108" s="41">
         <f>Z107+Z106</f>
-        <v>31366416711.653812</v>
+        <v>31868706371.285343</v>
       </c>
       <c r="AA108" s="42" t="s">
         <v>143</v>
@@ -10508,7 +10508,7 @@
       </c>
       <c r="AC108" s="46">
         <f>AC105</f>
-        <v>8.4653591127789515E-2</v>
+        <v>8.3659570489327026E-2</v>
       </c>
     </row>
     <row r="109" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="W110" s="48">
         <f>NPV(AC108,V108,W108,X108,Y108,Z108)</f>
-        <v>25353487132.523266</v>
+        <v>25795904459.708649</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="W113" s="48">
         <f>W110+W111-W112</f>
-        <v>21703530132.523266</v>
+        <v>22145947459.708649</v>
       </c>
     </row>
     <row r="114" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="W115" s="57">
         <f>W113/W114</f>
-        <v>304.30091676100784</v>
+        <v>310.50396287523068</v>
       </c>
     </row>
     <row r="116" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="W116" s="56" cm="1">
         <f t="array" ref="W116">_FV(A1,"Price")</f>
-        <v>533.65</v>
+        <v>466.51</v>
       </c>
     </row>
     <row r="117" spans="22:23" ht="20" x14ac:dyDescent="0.25">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="W117" s="52">
         <f>W115/W116-1</f>
-        <v>-0.42977435255128293</v>
+        <v>-0.33441091750395346</v>
       </c>
     </row>
     <row r="118" spans="22:23" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/MSCI.xlsx
+++ b/Financial Services/MSCI.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBD3E62-5CF4-A647-A329-4841185AC74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A85D28-BFE9-3C44-B7D6-C49E632BEFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,22 +856,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -853,47 +870,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,98 +917,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1116,10 +1099,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4485950413223145E-2"/>
-          <c:y val="0.1362682498136247"/>
-          <c:w val="0.86997685950413228"/>
-          <c:h val="0.69770483596253996"/>
+          <c:x val="9.0653399668325044E-2"/>
+          <c:y val="0.15908042156704305"/>
+          <c:w val="0.83770480928689872"/>
+          <c:h val="0.63419027029444441"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1173,6 +1156,75 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$U$3</c:f>
@@ -1244,7 +1296,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-275F-9D4C-9A3F-54C8CA53DBEB}"/>
+              <c16:uniqueId val="{00000000-CE9E-834B-A7FB-24AF9F02E053}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1253,11 +1305,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1295,78 +1347,147 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$U$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$U$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5476000</c:v>
+                  <c:v>11397000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20853000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117080000</c:v>
+                  <c:v>54554000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137197000</c:v>
+                  <c:v>71445000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>161120000</c:v>
+                  <c:v>81111000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143113000</c:v>
+                  <c:v>68268000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>188915000</c:v>
+                  <c:v>81801000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>263840000</c:v>
+                  <c:v>92170000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>404462000</c:v>
+                  <c:v>173454000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>427835000</c:v>
+                  <c:v>184238000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>452391000</c:v>
+                  <c:v>222557000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>499876000</c:v>
+                  <c:v>284113000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>483350000</c:v>
+                  <c:v>223648000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>568942000</c:v>
+                  <c:v>260855000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>662984000</c:v>
+                  <c:v>303972000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>848545000</c:v>
+                  <c:v>507885000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>830768000</c:v>
+                  <c:v>563648000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>953344000</c:v>
+                  <c:v>601822000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1151875000</c:v>
+                  <c:v>725983000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1331015000</c:v>
+                  <c:v>870573000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-275F-9D4C-9A3F-54C8CA53DBEB}"/>
+              <c16:uniqueId val="{00000001-CE9E-834B-A7FB-24AF9F02E053}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1375,11 +1496,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1417,9 +1538,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$U$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$U$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1488,7 +1678,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-275F-9D4C-9A3F-54C8CA53DBEB}"/>
+              <c16:uniqueId val="{00000002-CE9E-834B-A7FB-24AF9F02E053}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1502,11 +1692,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1212860512"/>
-        <c:axId val="1212862240"/>
+        <c:axId val="980042304"/>
+        <c:axId val="980033792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1212860512"/>
+        <c:axId val="980042304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1724,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1546,7 +1736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1212862240"/>
+        <c:crossAx val="980033792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1554,7 +1744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1212862240"/>
+        <c:axId val="980033792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +1780,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1602,7 +1792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1212860512"/>
+        <c:crossAx val="980042304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1620,10 +1810,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36169620615604869"/>
-          <c:y val="0.91569176520523043"/>
-          <c:w val="0.30305376456042166"/>
-          <c:h val="5.6664834656552518E-2"/>
+          <c:x val="0.34258941512907903"/>
+          <c:y val="0.89512381422834508"/>
+          <c:w val="0.31482106527728809"/>
+          <c:h val="6.6150888394912649E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2203,22 +2393,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6D98CF-CC57-6755-7C58-0EE064B5BD23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9DEF57-37E2-C1A3-68BD-331CF8760C23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,6 +2427,62 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Top 10"/>
+      <sheetName val="Investable"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2979,10 +3225,10 @@
   <dimension ref="A1:AD118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W88" sqref="W88"/>
+      <selection pane="bottomRight" activeCell="Y102" sqref="Y102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3056,19 +3302,19 @@
       <c r="U1" s="8">
         <v>2022</v>
       </c>
-      <c r="V1" s="27">
+      <c r="V1" s="23">
         <v>2023</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="23">
         <v>2024</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="23">
         <v>2025</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="23">
         <v>2026</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3077,73 +3323,73 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
@@ -3216,134 +3462,134 @@
       <c r="U3" s="1">
         <v>2248598000</v>
       </c>
-      <c r="V3" s="28">
-        <v>2474000000</v>
-      </c>
-      <c r="W3" s="28">
-        <v>2743000000</v>
-      </c>
-      <c r="X3" s="28">
-        <v>3044000000</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>3305000000</v>
-      </c>
-      <c r="Z3" s="28">
-        <v>3585000000</v>
+      <c r="V3" s="24">
+        <v>2484000000</v>
+      </c>
+      <c r="W3" s="24">
+        <v>2738000000</v>
+      </c>
+      <c r="X3" s="24">
+        <v>3019000000</v>
+      </c>
+      <c r="Y3" s="24">
+        <v>3262000000</v>
+      </c>
+      <c r="Z3" s="24">
+        <v>3529000000</v>
       </c>
       <c r="AA3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AD3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="69">
         <f>(C3/B3)-1</f>
         <v>0.9549941387205978</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="69">
         <f>(D3/C3)-1</f>
         <v>0.56055053069275851</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="69">
         <f>(E3/D3)-1</f>
         <v>0.11571636849400657</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="69">
         <f t="shared" ref="F4:Z4" si="0">(F3/E3)-1</f>
         <v>0.19050009977534454</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="69">
         <f t="shared" si="0"/>
         <v>0.16511844189831471</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="69">
         <f t="shared" si="0"/>
         <v>2.7814581829910257E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="69">
         <f t="shared" si="0"/>
         <v>0.49656618835619537</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="69">
         <f t="shared" si="0"/>
         <v>0.35908831032084731</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="69">
         <f t="shared" si="0"/>
         <v>5.4609569328069263E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="69">
         <f t="shared" si="0"/>
         <v>9.0014008447167226E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="69">
         <f t="shared" si="0"/>
         <v>-3.7644339348458566E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="69">
         <f t="shared" si="0"/>
         <v>7.8593931853754517E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="69">
         <f t="shared" si="0"/>
         <v>7.0376823350043249E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="69">
         <f t="shared" si="0"/>
         <v>0.1073314741250524</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="69">
         <f t="shared" si="0"/>
         <v>0.12542419704718055</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="69">
         <f t="shared" si="0"/>
         <v>8.6341270195483322E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="69">
         <f t="shared" si="0"/>
         <v>8.8326070936117329E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="69">
         <f t="shared" si="0"/>
         <v>0.20535334052931775</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="69">
         <f t="shared" si="0"/>
         <v>0.10034234643345097</v>
       </c>
       <c r="V4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10024112802733076</v>
+        <v>0.10468834358120027</v>
       </c>
       <c r="W4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10873080032336291</v>
+        <v>0.10225442834138487</v>
       </c>
       <c r="X4" s="16">
         <f t="shared" si="0"/>
-        <v>0.1097338680277069</v>
+        <v>0.10262965668371082</v>
       </c>
       <c r="Y4" s="16">
         <f t="shared" si="0"/>
-        <v>8.5742444152431041E-2</v>
+        <v>8.0490228552500875E-2</v>
       </c>
       <c r="Z4" s="16">
         <f t="shared" si="0"/>
-        <v>8.4720121028744266E-2</v>
+        <v>8.1851624770079789E-2</v>
       </c>
       <c r="AA4" s="17">
         <f>(U4+T4+S4)/3</f>
@@ -3358,7 +3604,7 @@
         <v>0.15773320645262764</v>
       </c>
       <c r="AD4" s="17">
-        <f>(U105+T105+S105)/3</f>
+        <f>(U106+T106+S106)/3</f>
         <v>0.18196072107726705</v>
       </c>
     </row>
@@ -3367,10 +3613,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1">
         <v>106598000</v>
@@ -3432,10 +3678,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="10">
         <v>171876000</v>
@@ -3492,16 +3738,16 @@
         <v>1753178000</v>
       </c>
       <c r="AA6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AD6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -3509,10 +3755,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2">
         <v>0.61719999999999997</v>
@@ -3581,7 +3827,7 @@
         <v>0.38719999999999999</v>
       </c>
       <c r="AD7" s="20">
-        <f>U106/U3</f>
+        <f>U107/U3</f>
         <v>0.48107843198295114</v>
       </c>
     </row>
@@ -3590,40 +3836,40 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" s="1">
         <v>77320000</v>
@@ -3652,7 +3898,7 @@
     </row>
     <row r="9" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3735,16 +3981,16 @@
         <v>4.767637434525869E-2</v>
       </c>
       <c r="AA9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AB9" s="19" t="s">
+      <c r="AC9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AC9" s="19" t="s">
+      <c r="AD9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AD9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -3752,10 +3998,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1">
         <v>70220000</v>
@@ -3770,10 +4016,10 @@
         <v>142000000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1">
         <v>212972000</v>
@@ -3825,7 +4071,7 @@
       </c>
       <c r="AD10" s="20">
         <f>U89</f>
-        <v>0</v>
+        <v>3.5281984596624211E-2</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -3833,40 +4079,40 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1">
         <v>162294000</v>
@@ -3898,10 +4144,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1">
         <v>70220000</v>
@@ -3958,21 +4204,21 @@
         <v>411440000</v>
       </c>
       <c r="AA12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AB12" s="19" t="s">
+      <c r="AD12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AC12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -4076,10 +4322,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1">
         <v>28031000</v>
@@ -4141,10 +4387,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1">
         <v>98251000</v>
@@ -4201,16 +4447,16 @@
         <v>545538000</v>
       </c>
       <c r="AA15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AB15" s="19" t="s">
+      <c r="AD15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AC15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -4218,10 +4464,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1">
         <v>204849000</v>
@@ -4277,44 +4523,44 @@
       <c r="U16" s="1">
         <v>1040958000</v>
       </c>
-      <c r="AA16" s="29">
+      <c r="AA16" s="25">
         <f>(U35+T35+S35+R35+Q35)/5</f>
         <v>-2.4361036744971885E-2</v>
       </c>
-      <c r="AB16" s="30">
+      <c r="AB16" s="58">
         <f>AC101/U3</f>
         <v>16.610517635433279</v>
       </c>
-      <c r="AC16" s="30">
+      <c r="AC16" s="58">
         <f>AC101/U28</f>
         <v>42.903210568211968</v>
       </c>
-      <c r="AD16" s="31">
-        <f>AC101/U106</f>
+      <c r="AD16" s="60">
+        <f>AC101/U107</f>
         <v>34.527670606571562</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1">
         <v>19683000</v>
@@ -4359,15 +4605,15 @@
         <v>171571000</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1">
         <v>32077000</v>
@@ -4424,10 +4670,19 @@
         <v>115603000</v>
       </c>
       <c r="AA18" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4491,14 +4746,41 @@
       <c r="U19" s="10">
         <v>1331015000</v>
       </c>
-      <c r="AA19" s="54">
+      <c r="V19" s="63">
+        <v>1493000000</v>
+      </c>
+      <c r="W19" s="63">
+        <v>1672000000</v>
+      </c>
+      <c r="X19" s="63">
+        <v>1866000000</v>
+      </c>
+      <c r="Y19" s="63">
+        <v>2084000000</v>
+      </c>
+      <c r="Z19" s="63">
+        <v>2299000000</v>
+      </c>
+      <c r="AA19" s="28">
         <f>U40-U56-U61</f>
         <v>-3649957000</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="58">
+        <f>AC101/V3</f>
+        <v>15.036383548309178</v>
+      </c>
+      <c r="AC19" s="59">
+        <f>W116/V31</f>
+        <v>35.208301886792455</v>
+      </c>
+      <c r="AD19" s="60">
+        <f>AC101/V106</f>
+        <v>29.572744840855108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4514,7 +4796,7 @@
         <v>0.17182268534335488</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:U20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:Z20" si="3">(F19/E19)-1</f>
         <v>0.17436970196141321</v>
       </c>
       <c r="G20" s="15">
@@ -4577,8 +4859,28 @@
         <f t="shared" si="3"/>
         <v>0.15552034725990227</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="V20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.12170035649485533</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.1198928332217013</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.11602870813397126</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.11682743837084675</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10316698656429946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4642,8 +4944,34 @@
       <c r="U21" s="2">
         <v>0.59189999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="V21" s="64">
+        <f>V19/V3</f>
+        <v>0.60104669887278583</v>
+      </c>
+      <c r="W21" s="64">
+        <f t="shared" ref="W21:Z21" si="4">W19/W3</f>
+        <v>0.61066471877282691</v>
+      </c>
+      <c r="X21" s="64">
+        <f t="shared" si="4"/>
+        <v>0.61808545876117915</v>
+      </c>
+      <c r="Y21" s="64">
+        <f t="shared" si="4"/>
+        <v>0.63887185775597788</v>
+      </c>
+      <c r="Z21" s="64">
+        <f t="shared" si="4"/>
+        <v>0.65145933692264102</v>
+      </c>
+      <c r="AC21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD21" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4707,8 +5035,16 @@
       <c r="U22" s="10">
         <v>1207640000</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="AC22" s="61">
+        <f>(-1*U98)/AC101</f>
+        <v>9.9842366425326023E-3</v>
+      </c>
+      <c r="AD22" s="62">
+        <f>U107/AC101</f>
+        <v>2.8962278150605172E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4773,7 +5109,7 @@
         <v>0.53710000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4781,7 +5117,7 @@
         <v>-11049000</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="1">
         <v>7272000</v>
@@ -4838,7 +5174,7 @@
         <v>-163799000</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4846,7 +5182,7 @@
         <v>5476000</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10">
         <v>80897000</v>
@@ -4903,7 +5239,7 @@
         <v>1043841000</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4911,7 +5247,7 @@
         <v>0.06</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2">
         <v>0.29049999999999998</v>
@@ -4968,7 +5304,7 @@
         <v>0.4642</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4976,7 +5312,7 @@
         <v>-5921000</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1">
         <v>30449000</v>
@@ -5033,7 +5369,7 @@
         <v>173268000</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5097,10 +5433,25 @@
       <c r="U28" s="11">
         <v>870573000</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V28" s="65">
+        <v>1048000000</v>
+      </c>
+      <c r="W28" s="65">
+        <v>1184000000</v>
+      </c>
+      <c r="X28" s="65">
+        <v>1339000000</v>
+      </c>
+      <c r="Y28" s="65">
+        <v>1518000000</v>
+      </c>
+      <c r="Z28" s="65">
+        <v>1694000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5116,71 +5467,91 @@
         <v>0.3096198262272245</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:U29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:Z29" si="5">(F28/E28)-1</f>
         <v>0.13529288263699346</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.15833857306653842</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1982334329407629</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12675884157895378</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.88189215579906688</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2172103266572076E-2</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20798640888416076</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.276585324209079</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.21282025109727465</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16636410788381739</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16529106208429978</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6708282341794638</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10979454010258238</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7726666288179915E-2</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20630850982516424</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19916444324453875</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="V29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.20380485036866514</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.12977099236641232</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.13091216216216206</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.13368185212845396</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.11594202898550732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5244,8 +5615,28 @@
       <c r="U30" s="2">
         <v>0.38719999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="V30" s="66">
+        <f>V28/V3</f>
+        <v>0.4219001610305958</v>
+      </c>
+      <c r="W30" s="66">
+        <f t="shared" ref="W30:Z30" si="6">W28/W3</f>
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="X30" s="66">
+        <f t="shared" si="6"/>
+        <v>0.44352434580987082</v>
+      </c>
+      <c r="Y30" s="66">
+        <f t="shared" si="6"/>
+        <v>0.46535867565910483</v>
+      </c>
+      <c r="Z30" s="66">
+        <f t="shared" si="6"/>
+        <v>0.48002266931141968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5309,8 +5700,23 @@
       <c r="U31" s="12">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" ht="19" x14ac:dyDescent="0.25">
+      <c r="V31" s="67">
+        <v>13.25</v>
+      </c>
+      <c r="W31" s="67">
+        <v>14.97</v>
+      </c>
+      <c r="X31" s="67">
+        <v>16.93</v>
+      </c>
+      <c r="Y31" s="67">
+        <v>19.2</v>
+      </c>
+      <c r="Z31" s="67">
+        <v>21.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5507,7 +5913,7 @@
     </row>
     <row r="35" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -5515,75 +5921,75 @@
         <v>-0.3294874851013111</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:U35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:U35" si="7">(D34-C34)/C34</f>
         <v>0.49139647326507396</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.6293206197854584E-3</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19580733598033656</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2658853291697136E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10619175408636253</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.8680628456998691E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.5893879420327786E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.7288399727281582E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.6077109866693095E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.8094699501310985E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.12177282899405055</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.7917961466749537E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.4076854450899753E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.6432035317332025E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.1913112607557052E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.1110190849178272E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.8272990499892316E-2</v>
       </c>
     </row>
@@ -5592,64 +5998,64 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="21" x14ac:dyDescent="0.25">
@@ -5657,64 +6063,64 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -5722,7 +6128,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>5735000</v>
@@ -5787,22 +6193,22 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1">
         <v>295304000</v>
@@ -5817,34 +6223,34 @@
         <v>70898000</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -5852,7 +6258,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>5735000</v>
@@ -5917,7 +6323,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>89124000</v>
@@ -5982,64 +6388,64 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -6047,10 +6453,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1">
         <v>257521000</v>
@@ -6112,10 +6518,10 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10">
         <v>369685000</v>
@@ -6177,10 +6583,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1">
         <v>6250000</v>
@@ -6242,10 +6648,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1">
         <v>441623000</v>
@@ -6307,10 +6713,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
         <v>226916000</v>
@@ -6372,10 +6778,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1">
         <v>668539000</v>
@@ -6437,55 +6843,55 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1">
         <v>190898000</v>
@@ -6494,7 +6900,7 @@
         <v>218763000</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -6502,40 +6908,40 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1">
         <v>9180000</v>
@@ -6567,10 +6973,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1">
         <v>3045000</v>
@@ -6632,10 +7038,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1">
         <v>677834000</v>
@@ -6697,64 +7103,64 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1">
         <v>123100000</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -6762,7 +7168,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>123100000</v>
@@ -6827,19 +7233,19 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1">
         <v>900000</v>
@@ -6892,19 +7298,19 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1">
         <v>22086000</v>
@@ -6925,28 +7331,28 @@
         <v>19772000</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1">
         <v>8713000</v>
@@ -6957,52 +7363,52 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1">
         <v>14210000</v>
@@ -7022,10 +7428,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1">
         <v>87952000</v>
@@ -7087,10 +7493,10 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1">
         <v>126836000</v>
@@ -7152,10 +7558,10 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10">
         <v>214788000</v>
@@ -7217,16 +7623,16 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1">
         <v>402750000</v>
@@ -7282,64 +7688,64 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7347,10 +7753,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1">
         <v>75514000</v>
@@ -7412,19 +7818,19 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1">
         <v>8499000</v>
@@ -7477,10 +7883,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
         <v>75514000</v>
@@ -7542,64 +7948,64 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1">
         <v>86476000</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7607,7 +8013,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>86476000</v>
@@ -7672,10 +8078,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1">
         <v>29000</v>
@@ -7737,10 +8143,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1">
         <v>109676000</v>
@@ -7802,10 +8208,10 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1">
         <v>-8430000</v>
@@ -7867,7 +8273,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>36624000</v>
@@ -7924,7 +8330,7 @@
         <v>-3082521000</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7932,7 +8338,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>36624000</v>
@@ -7997,7 +8403,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>123100000</v>
@@ -8062,64 +8468,64 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="21" x14ac:dyDescent="0.25">
@@ -8127,64 +8533,64 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -8192,10 +8598,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1">
         <v>54554000</v>
@@ -8257,10 +8663,10 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>32077000</v>
@@ -8322,10 +8728,10 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>-52213000</v>
@@ -8387,22 +8793,22 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1">
         <v>35161000</v>
@@ -8449,86 +8855,86 @@
     </row>
     <row r="80" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:U80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:U80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.937952084669081E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.8702596616991077E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.5210962760047551E-2</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6651833780459953E-2</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4142895351498116E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6673556206605931E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6565260141040156E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7810777903984552E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.870570064324126E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7125128313844504E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.644698022077345E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0137018621084234E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6873412072360565E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5835654038649861E-2</v>
       </c>
     </row>
@@ -8537,10 +8943,10 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1">
         <v>32253000</v>
@@ -8602,22 +9008,22 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1">
         <v>8560000</v>
@@ -8667,91 +9073,91 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB83" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC83" s="62"/>
+        <v>91</v>
+      </c>
+      <c r="AB83" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC83" s="39"/>
     </row>
     <row r="84" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1">
         <v>688000</v>
@@ -8795,20 +9201,20 @@
       <c r="U84" s="1">
         <v>1337000</v>
       </c>
-      <c r="AB84" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC84" s="64"/>
+      <c r="AB84" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC84" s="40"/>
     </row>
     <row r="85" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1">
         <v>154897000</v>
@@ -8862,12 +9268,12 @@
         <v>161855000</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB85" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC85" s="24">
+        <v>91</v>
+      </c>
+      <c r="AB85" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC85" s="42">
         <f>U17</f>
         <v>171571000</v>
       </c>
@@ -8877,10 +9283,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1">
         <v>-6790000</v>
@@ -8934,12 +9340,12 @@
         <v>72265000</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB86" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC86" s="24">
+        <v>91</v>
+      </c>
+      <c r="AB86" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC86" s="42">
         <f>U56</f>
         <v>8713000</v>
       </c>
@@ -8949,10 +9355,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10">
         <v>59881000</v>
@@ -9008,10 +9414,10 @@
       <c r="U87" s="10">
         <v>1095369000</v>
       </c>
-      <c r="AB87" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC87" s="24">
+      <c r="AB87" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC87" s="42">
         <f>U61</f>
         <v>4634808000</v>
       </c>
@@ -9021,10 +9427,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1">
         <v>-346000</v>
@@ -9045,137 +9451,137 @@
         <v>-13190000</v>
       </c>
       <c r="J88" s="1">
-        <v>0</v>
+        <v>-23111000</v>
       </c>
       <c r="K88" s="1">
-        <v>0</v>
+        <v>-44087000</v>
       </c>
       <c r="L88" s="1">
-        <v>0</v>
+        <v>-43779000</v>
       </c>
       <c r="M88" s="1">
-        <v>0</v>
+        <v>-50963000</v>
       </c>
       <c r="N88" s="1">
-        <v>0</v>
+        <v>-48597000</v>
       </c>
       <c r="O88" s="1">
-        <v>0</v>
+        <v>-43031000</v>
       </c>
       <c r="P88" s="1">
-        <v>0</v>
+        <v>-48817000</v>
       </c>
       <c r="Q88" s="1">
-        <v>0</v>
+        <v>-49126000</v>
       </c>
       <c r="R88" s="1">
-        <v>0</v>
+        <v>-53760000</v>
       </c>
       <c r="S88" s="1">
-        <v>0</v>
+        <v>-50975000</v>
       </c>
       <c r="T88" s="1">
-        <v>0</v>
+        <v>-60363000</v>
       </c>
       <c r="U88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB88" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC88" s="33">
+        <v>-79335000</v>
+      </c>
+      <c r="AB88" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC88" s="44">
         <f>AC85/(AC86+AC87)</f>
         <v>3.6948470783269849E-2</v>
       </c>
     </row>
     <row r="89" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:U89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2424858335068983E-3</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.8371923861756433E-3</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.4463915909226086E-3</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.9300029469023879E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0278949222030577E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.9897390409729356E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5652068226443243E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.6400481612729055E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.2271309214255162E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.1132760765742268E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.5205964951121523E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.7396505858765638E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.8312723870874574E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4258401767383734E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4510295314662508E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0066828281398381E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.9538390169235408E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.5281984596624211E-2</v>
+      </c>
+      <c r="AB89" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:U89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2424858335068983E-3</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.8371923861756433E-3</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.4463915909226086E-3</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.9300029469023879E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0278949222030577E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.9897390409729356E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC89" s="24">
+      <c r="AC89" s="42">
         <f>U27</f>
         <v>173268000</v>
       </c>
@@ -9185,31 +9591,31 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1">
         <v>-1101243000</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1">
         <v>-120000000</v>
@@ -9227,7 +9633,7 @@
         <v>1000000</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1">
         <v>84000000</v>
@@ -9242,12 +9648,12 @@
         <v>-975350000</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB90" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AC90" s="24">
+      <c r="AC90" s="42">
         <f>U25</f>
         <v>1043841000</v>
       </c>
@@ -9257,22 +9663,22 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1">
         <v>-563386000</v>
@@ -9287,39 +9693,39 @@
         <v>-137306000</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB91" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC91" s="33">
+        <v>91</v>
+      </c>
+      <c r="AB91" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC91" s="44">
         <f>AC89/AC90</f>
         <v>0.16599079744903678</v>
       </c>
@@ -9329,10 +9735,10 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1">
         <v>647000</v>
@@ -9341,10 +9747,10 @@
         <v>20000</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1">
         <v>268582000</v>
@@ -9362,36 +9768,36 @@
         <v>70900000</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1">
         <v>6736000</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1">
         <v>771000</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB92" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC92" s="35">
+        <v>91</v>
+      </c>
+      <c r="AB92" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC92" s="44">
         <f>AC88*(1-AC91)</f>
         <v>3.0815364653432452E-2</v>
       </c>
@@ -9401,10 +9807,10 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>-64009000</v>
@@ -9419,7 +9825,7 @@
         <v>137625000</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1">
         <v>22000</v>
@@ -9460,20 +9866,20 @@
       <c r="U93" s="1">
         <v>-79335000</v>
       </c>
-      <c r="AB93" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC93" s="64"/>
+      <c r="AB93" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC93" s="40"/>
     </row>
     <row r="94" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10">
         <v>-63708000</v>
@@ -9529,11 +9935,12 @@
       <c r="U94" s="10">
         <v>-79335000</v>
       </c>
-      <c r="AB94" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC94" s="36">
-        <v>4.095E-2</v>
+      <c r="AB94" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC94" s="55">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:29" ht="20" x14ac:dyDescent="0.25">
@@ -9541,22 +9948,22 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1">
         <v>-22250000</v>
@@ -9577,16 +9984,16 @@
         <v>-810000000</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1">
         <v>-513125000</v>
@@ -9600,10 +10007,10 @@
       <c r="U95" s="1">
         <v>-9748000</v>
       </c>
-      <c r="AB95" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC95" s="55" cm="1">
+      <c r="AB95" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC95" s="46" cm="1">
         <f t="array" ref="AC95">_FV(A1,"Beta")</f>
         <v>1.1447000000000001</v>
       </c>
@@ -9613,69 +10020,69 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>265035000</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1">
         <v>115755000</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB96" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC96" s="36">
+        <v>91</v>
+      </c>
+      <c r="AB96" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC96" s="45">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -9684,19 +10091,19 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1">
         <v>-681000</v>
@@ -9743,12 +10150,12 @@
       <c r="U97" s="1">
         <v>-1397506000</v>
       </c>
-      <c r="AB97" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC97" s="35">
+      <c r="AB97" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC97" s="44">
         <f>(AC94)+((AC95)*(AC96-AC94))</f>
-        <v>9.0229335000000008E-2</v>
+        <v>9.0494136000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9756,13 +10163,13 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1">
         <v>-5000000</v>
@@ -9771,22 +10178,22 @@
         <v>-973000000</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1">
         <v>-20393000</v>
@@ -9815,26 +10222,26 @@
       <c r="U98" s="1">
         <v>-372915000</v>
       </c>
-      <c r="AB98" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC98" s="64"/>
+      <c r="AB98" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC98" s="40"/>
     </row>
     <row r="99" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1">
         <v>415901000</v>
@@ -9884,10 +10291,10 @@
       <c r="U99" s="1">
         <v>354789000</v>
       </c>
-      <c r="AB99" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC99" s="24">
+      <c r="AB99" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC99" s="42">
         <f>AC86+AC87</f>
         <v>4643521000</v>
       </c>
@@ -9897,13 +10304,13 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10">
         <v>-5000000</v>
@@ -9956,10 +10363,10 @@
       <c r="U100" s="10">
         <v>-1425380000</v>
       </c>
-      <c r="AB100" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC100" s="33">
+      <c r="AB100" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC100" s="44">
         <f>AC99/AC103</f>
         <v>0.11057608963600474</v>
       </c>
@@ -9969,10 +10376,10 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1">
         <v>-5838000</v>
@@ -10028,10 +10435,10 @@
       <c r="U101" s="1">
         <v>-18539000</v>
       </c>
-      <c r="AB101" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC101" s="48" cm="1">
+      <c r="AB101" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC101" s="32" cm="1">
         <f t="array" ref="AC101">_FV(A1,"Market cap",TRUE)</f>
         <v>37350376734</v>
       </c>
@@ -10041,10 +10448,10 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>-9665000</v>
@@ -10100,10 +10507,10 @@
       <c r="U102" s="10">
         <v>-427885000</v>
       </c>
-      <c r="AB102" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC102" s="33">
+      <c r="AB102" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC102" s="44">
         <f>AC101/AC103</f>
         <v>0.88942391036399526</v>
       </c>
@@ -10113,10 +10520,10 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1">
         <v>33076000</v>
@@ -10172,23 +10579,23 @@
       <c r="U103" s="1">
         <v>1421449000</v>
       </c>
-      <c r="AB103" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC103" s="37">
+      <c r="AB103" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC103" s="47">
         <f>AC99+AC101</f>
         <v>41993897734</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11">
         <v>23411000</v>
@@ -10244,356 +10651,426 @@
       <c r="U104" s="11">
         <v>993564000</v>
       </c>
-      <c r="AB104" s="63" t="s">
+      <c r="AB104" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC104" s="40"/>
+    </row>
+    <row r="105" spans="1:29" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" ref="C105:T105" si="10">(C22*(1-$AC$91))+C77+C88+C81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>125387927.53781468</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>88588630.535685033</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>157943920.30395433</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>144532109.61439529</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>144654717.51157504</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>212555478.85741219</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>288527295.20300508</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>390696816.69622099</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>352602422.80289817</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>305813546.78729808</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>367518648.89192897</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>526715227.80193537</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>512643122.00708723</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>648388253.21385157</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>657495588.3769654</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>849645318.08580041</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>1028572521.8064821</v>
+      </c>
+      <c r="U105" s="1">
+        <f>(U22*(1-$AC$91))+U77+U88+U81</f>
+        <v>1058113873.3686452</v>
+      </c>
+      <c r="V105" s="29">
+        <f>U105*(1+$AC$106)</f>
+        <v>1157981683.1185946</v>
+      </c>
+      <c r="W105" s="29">
+        <f t="shared" ref="W105:Z105" si="11">V105*(1+$AC$106)</f>
+        <v>1267275302.0137353</v>
+      </c>
+      <c r="X105" s="29">
+        <f t="shared" si="11"/>
+        <v>1386884364.8449378</v>
+      </c>
+      <c r="Y105" s="29">
+        <f t="shared" si="11"/>
+        <v>1517782472.6757748</v>
+      </c>
+      <c r="Z105" s="29">
+        <f t="shared" si="11"/>
+        <v>1661035117.8191795</v>
+      </c>
+      <c r="AA105" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB105" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC105" s="49">
+        <f>(AC100*AC92)+(AC102*AC97)</f>
+        <v>8.3895090830215319E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>0.36440749139161843</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>0.3503631663178628</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>0.18082778740085703</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-9.2607604709515567E-2</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>0.44783459542244541</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>0.3627206694718037</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>0.30318777330239866</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>-8.366893785718299E-2</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>-7.9842690867330868E-2</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>8.0220409893327904E-3</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>0.52665841256492318</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-9.3772155772614774E-2</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>0.5866477552548115</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>0.16309300622027978</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>0.15917731218919329</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>0.16199906858527569</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>0.22470578245733219</v>
+      </c>
+      <c r="V106" s="57">
+        <v>1263000000</v>
+      </c>
+      <c r="W106" s="57">
+        <v>1420000000</v>
+      </c>
+      <c r="X106" s="57">
+        <v>1588000000</v>
+      </c>
+      <c r="Y106" s="57">
+        <v>1759000000</v>
+      </c>
+      <c r="Z106" s="57">
+        <v>1947000000</v>
+      </c>
+      <c r="AA106" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB106" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC106" s="51">
+        <f>(SUM(V4:Z4)/5)</f>
+        <v>9.4382856385775329E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1">
+        <v>59535000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>81230000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>109690000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>129525000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>117530000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>170164000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>231886000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>302191000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>276907000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>254798000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>256842000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>392110000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>355341000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>563801000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>655753000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>760134000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>883275000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1081752000</v>
+      </c>
+      <c r="V107" s="26"/>
+      <c r="W107" s="26"/>
+      <c r="X107" s="26"/>
+      <c r="Y107" s="26"/>
+      <c r="Z107" s="68">
+        <f>Z106*(1+AC107)/(AC108-AC107)</f>
+        <v>33885252096.022682</v>
+      </c>
+      <c r="AA107" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="AC104" s="64"/>
-    </row>
-    <row r="105" spans="1:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.36440749139161843</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.3503631663178628</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.18082778740085703</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:U105" si="8">(H106/G106)-1</f>
-        <v>-9.2607604709515567E-2</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.44783459542244541</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.3627206694718037</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.30318777330239866</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-8.366893785718299E-2</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.9842690867330868E-2</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.0220409893327904E-3</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.52665841256492318</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-9.3772155772614774E-2</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.5866477552548115</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.16309300622027978</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.15917731218919329</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.16199906858527569</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.22470578245733219</v>
-      </c>
-      <c r="V105" s="15"/>
-      <c r="W105" s="15"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC105" s="26">
-        <f>(AC100*AC92)+(AC102*AC97)</f>
-        <v>8.3659570489327026E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1">
-        <v>59535000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>81230000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>109690000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>129525000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>117530000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>170164000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>231886000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>302191000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>276907000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>254798000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>256842000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>392110000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>355341000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>563801000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>655753000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>760134000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>883275000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>1081752000</v>
-      </c>
-      <c r="V106" s="58">
-        <f>U106*(1+$AC$106)</f>
-        <v>1187583770.6907587</v>
-      </c>
-      <c r="W106" s="58">
-        <f t="shared" ref="W106:Z106" si="9">V106*(1+$AC$106)</f>
-        <v>1303769452.1554668</v>
-      </c>
-      <c r="X106" s="58">
-        <f t="shared" si="9"/>
-        <v>1431322005.5079298</v>
-      </c>
-      <c r="Y106" s="58">
-        <f t="shared" si="9"/>
-        <v>1571353493.5676258</v>
-      </c>
-      <c r="Z106" s="58">
-        <f t="shared" si="9"/>
-        <v>1725084776.3435037</v>
-      </c>
-      <c r="AA106" s="38" t="s">
+      <c r="AB107" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="AB106" s="39" t="s">
+      <c r="AC107" s="53">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="V108" s="68">
+        <f t="shared" ref="V108:X108" si="12">V107+V106</f>
+        <v>1263000000</v>
+      </c>
+      <c r="W108" s="68">
+        <f t="shared" si="12"/>
+        <v>1420000000</v>
+      </c>
+      <c r="X108" s="68">
+        <f t="shared" si="12"/>
+        <v>1588000000</v>
+      </c>
+      <c r="Y108" s="68">
+        <f>Y107+Y106</f>
+        <v>1759000000</v>
+      </c>
+      <c r="Z108" s="68">
+        <f>Z107+Z106</f>
+        <v>35832252096.022682</v>
+      </c>
+      <c r="AA108" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB108" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AC106" s="40">
-        <f>(SUM(V4:Z4)/5)</f>
-        <v>9.7833672311915171E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="38"/>
-      <c r="W107" s="38"/>
-      <c r="X107" s="38"/>
-      <c r="Y107" s="38"/>
-      <c r="Z107" s="41">
-        <f>Z106*(1+AC107)/(AC108-AC107)</f>
-        <v>30143621594.941841</v>
-      </c>
-      <c r="AA107" s="42" t="s">
+      <c r="AC108" s="51">
+        <f>AC105</f>
+        <v>8.3895090830215319E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="V109" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="AB107" s="43" t="s">
+      <c r="W109" s="30"/>
+    </row>
+    <row r="110" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="V110" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="AC107" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="V108" s="41">
-        <f t="shared" ref="V108:X108" si="10">V107+V106</f>
-        <v>1187583770.6907587</v>
-      </c>
-      <c r="W108" s="41">
-        <f t="shared" si="10"/>
-        <v>1303769452.1554668</v>
-      </c>
-      <c r="X108" s="41">
-        <f t="shared" si="10"/>
-        <v>1431322005.5079298</v>
-      </c>
-      <c r="Y108" s="41">
-        <f>Y107+Y106</f>
-        <v>1571353493.5676258</v>
-      </c>
-      <c r="Z108" s="41">
-        <f>Z107+Z106</f>
-        <v>31868706371.285343</v>
-      </c>
-      <c r="AA108" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB108" s="45" t="s">
+      <c r="W110" s="32">
+        <f>NPV(AC108,V108,W108,X108,Y108,Z108)</f>
+        <v>28847209000.171818</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="V111" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="AC108" s="46">
-        <f>AC105</f>
-        <v>8.3659570489327026E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" ht="19" x14ac:dyDescent="0.25">
-      <c r="V109" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="W109" s="60"/>
-    </row>
-    <row r="110" spans="1:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="V110" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="W110" s="48">
-        <f>NPV(AC108,V108,W108,X108,Y108,Z108)</f>
-        <v>25795904459.708649</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="V111" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="W111" s="48">
+      <c r="W111" s="32">
         <f>U40</f>
         <v>993564000</v>
       </c>
     </row>
     <row r="112" spans="1:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="V112" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="W112" s="48">
+      <c r="V112" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="W112" s="32">
         <f>AC99</f>
         <v>4643521000</v>
       </c>
     </row>
     <row r="113" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V113" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="W113" s="48">
+      <c r="V113" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="W113" s="32">
         <f>W110+W111-W112</f>
-        <v>22145947459.708649</v>
+        <v>25197252000.171818</v>
       </c>
     </row>
     <row r="114" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V114" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="W114" s="49">
+      <c r="V114" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="W114" s="31">
         <f>U34*(1+(5*AA16))</f>
         <v>71322592.003785536</v>
       </c>
     </row>
     <row r="115" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V115" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="W115" s="57">
+      <c r="V115" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="W115" s="34">
         <f>W113/W114</f>
-        <v>310.50396287523068</v>
+        <v>353.28570221949366</v>
       </c>
     </row>
     <row r="116" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V116" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="W116" s="56" cm="1">
+      <c r="V116" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="W116" s="35" cm="1">
         <f t="array" ref="W116">_FV(A1,"Price")</f>
         <v>466.51</v>
       </c>
     </row>
     <row r="117" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V117" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="W117" s="52">
+      <c r="V117" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="W117" s="36">
         <f>W115/W116-1</f>
-        <v>-0.33441091750395346</v>
+        <v>-0.2427049747711868</v>
       </c>
     </row>
     <row r="118" spans="22:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="V118" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="W118" s="53" t="str">
+      <c r="V118" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="W118" s="37" t="str">
         <f>IF(W115&gt;W116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -10650,8 +11127,9 @@
     <hyperlink ref="U36" r:id="rId40" tooltip="https://www.sec.gov/Archives/edgar/data/1408198/000140819823000011/0001408198-23-000011-index.htm" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="U74" r:id="rId41" tooltip="https://www.sec.gov/Archives/edgar/data/1408198/000140819823000011/0001408198-23-000011-index.htm" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="V1" r:id="rId42" display="https://finbox.com/NYSE:MSCI/explorer/revenue_proj" xr:uid="{D176B0D5-570B-EA4F-8830-EAF517CA98CB}"/>
+    <hyperlink ref="AA106" r:id="rId43" xr:uid="{C931CB92-1FEF-CE45-8A96-D15160E392B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId43"/>
+  <drawing r:id="rId44"/>
 </worksheet>
 </file>